--- a/Prototype analysis(1).xlsx
+++ b/Prototype analysis(1).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (Personal)\RPrograms PC\Pensions\PPPPrototypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\PenSim-Projects\PPPPrototypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13335" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13332" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="PA-PSERSold" sheetId="5" r:id="rId5"/>
     <sheet name="PA-PSERS" sheetId="8" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="SalaryGrowth" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="94">
   <si>
     <t>Some candidates</t>
   </si>
@@ -306,6 +307,12 @@
   </si>
   <si>
     <t>Retirees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age </t>
+  </si>
+  <si>
+    <t>Annural Rate of Salary Increase</t>
   </si>
 </sst>
 </file>
@@ -376,7 +383,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -390,6 +397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -695,6 +703,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>341598</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8016240" y="548640"/>
+          <a:ext cx="3907758" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -967,13 +1018,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>44</v>
       </c>
@@ -981,7 +1032,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>46</v>
       </c>
@@ -989,7 +1040,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>48</v>
       </c>
@@ -997,7 +1048,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>50</v>
       </c>
@@ -1005,7 +1056,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>75</v>
       </c>
@@ -1032,19 +1083,19 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1052,7 +1103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1060,7 +1111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1083,14 +1134,14 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1098,7 +1149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1109,7 +1160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1117,7 +1168,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1128,7 +1179,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1139,7 +1190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1150,7 +1201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1161,7 +1212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1169,7 +1220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>7</v>
       </c>
@@ -1194,27 +1245,27 @@
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="3" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.109375" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1258,7 +1309,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>-4</v>
       </c>
@@ -1302,7 +1353,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>145</v>
       </c>
@@ -1346,7 +1397,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>92</v>
       </c>
@@ -1390,7 +1441,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>11</v>
       </c>
@@ -1434,7 +1485,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>73</v>
       </c>
@@ -1478,7 +1529,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>93</v>
       </c>
@@ -1522,7 +1573,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>146</v>
       </c>
@@ -1566,7 +1617,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>41</v>
       </c>
@@ -1610,17 +1661,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>54</v>
       </c>
@@ -1639,22 +1690,22 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:L19"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>73</v>
       </c>
@@ -1662,7 +1713,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>55</v>
       </c>
@@ -1697,7 +1748,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1711,14 +1762,14 @@
         <v>85</v>
       </c>
       <c r="L5" s="8">
-        <f>+SUM(C5:K5)</f>
+        <f t="shared" ref="L5:L14" si="0">+SUM(C5:K5)</f>
         <v>7068</v>
       </c>
       <c r="M5" s="8">
         <v>7068</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1735,14 +1786,14 @@
         <v>38</v>
       </c>
       <c r="L6" s="8">
-        <f>+SUM(C6:K6)</f>
+        <f t="shared" si="0"/>
         <v>25711</v>
       </c>
       <c r="M6" s="8">
         <v>25711</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1762,14 +1813,14 @@
         <v>39</v>
       </c>
       <c r="L7" s="8">
-        <f>+SUM(C7:K7)</f>
+        <f t="shared" si="0"/>
         <v>31141</v>
       </c>
       <c r="M7" s="8">
         <v>31141</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1792,14 +1843,14 @@
         <v>37</v>
       </c>
       <c r="L8" s="8">
-        <f>+SUM(C8:K8)</f>
+        <f t="shared" si="0"/>
         <v>29831</v>
       </c>
       <c r="M8" s="8">
         <v>29831</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1825,14 +1876,14 @@
         <v>55</v>
       </c>
       <c r="L9" s="8">
-        <f>+SUM(C9:K9)</f>
+        <f t="shared" si="0"/>
         <v>35942</v>
       </c>
       <c r="M9" s="8">
         <v>35942</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1861,14 +1912,14 @@
         <v>76</v>
       </c>
       <c r="L10" s="8">
-        <f>+SUM(C10:K10)</f>
+        <f t="shared" si="0"/>
         <v>35371</v>
       </c>
       <c r="M10" s="8">
         <v>35371</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1900,14 +1951,14 @@
         <v>80</v>
       </c>
       <c r="L11" s="8">
-        <f>+SUM(C11:K11)</f>
+        <f t="shared" si="0"/>
         <v>37813</v>
       </c>
       <c r="M11" s="8">
         <v>37813</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1942,14 +1993,14 @@
         <v>31</v>
       </c>
       <c r="L12" s="8">
-        <f>+SUM(C12:K12)</f>
+        <f t="shared" si="0"/>
         <v>36244</v>
       </c>
       <c r="M12" s="8">
         <v>36244</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1984,14 +2035,14 @@
         <v>246</v>
       </c>
       <c r="L13" s="8">
-        <f>+SUM(C13:K13)</f>
+        <f t="shared" si="0"/>
         <v>19859</v>
       </c>
       <c r="M13" s="8">
         <v>19859</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -2026,14 +2077,14 @@
         <v>196</v>
       </c>
       <c r="L14" s="8">
-        <f>+SUM(C14:K14)</f>
+        <f t="shared" si="0"/>
         <v>8448</v>
       </c>
       <c r="M14" s="8">
         <v>8448</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11</v>
       </c>
@@ -2045,43 +2096,43 @@
         <v>72366</v>
       </c>
       <c r="D15" s="8">
-        <f t="shared" ref="D15:L15" si="0">+SUM(D5:D14)</f>
+        <f t="shared" ref="D15:L15" si="1">+SUM(D5:D14)</f>
         <v>67534</v>
       </c>
       <c r="E15" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51250</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33433</v>
       </c>
       <c r="G15" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20773</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12782</v>
       </c>
       <c r="I15" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6696</v>
       </c>
       <c r="J15" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2121</v>
       </c>
       <c r="K15" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>473</v>
       </c>
       <c r="L15" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>267428</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>72</v>
       </c>
@@ -2120,12 +2171,12 @@
         <v>267428</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>55</v>
       </c>
@@ -2160,7 +2211,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2177,7 +2228,7 @@
         <v>24040</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2197,7 +2248,7 @@
         <v>39540</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2220,7 +2271,7 @@
         <v>49603</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -2246,7 +2297,7 @@
         <v>53997</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>5</v>
       </c>
@@ -2275,7 +2326,7 @@
         <v>53447</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>6</v>
       </c>
@@ -2307,7 +2358,7 @@
         <v>47879</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>7</v>
       </c>
@@ -2342,7 +2393,7 @@
         <v>46012</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>8</v>
       </c>
@@ -2380,7 +2431,7 @@
         <v>47923</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>9</v>
       </c>
@@ -2418,7 +2469,7 @@
         <v>45225</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>10</v>
       </c>
@@ -2456,7 +2507,7 @@
         <v>29083</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>11</v>
       </c>
@@ -2494,7 +2545,7 @@
         <v>47030</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2502,7 +2553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
@@ -2510,7 +2561,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2518,7 +2569,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>4</v>
       </c>
@@ -2526,7 +2577,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5</v>
       </c>
@@ -2534,7 +2585,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>6</v>
       </c>
@@ -2542,7 +2593,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>7</v>
       </c>
@@ -2550,7 +2601,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>8</v>
       </c>
@@ -2558,7 +2609,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>9</v>
       </c>
@@ -2566,7 +2617,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>10</v>
       </c>
@@ -2574,7 +2625,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>11</v>
       </c>
@@ -2598,28 +2649,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>55</v>
       </c>
@@ -2648,7 +2699,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2666,7 +2717,7 @@
       </c>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2684,7 +2735,7 @@
       </c>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2705,7 +2756,7 @@
       </c>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2726,7 +2777,7 @@
       </c>
       <c r="N8" s="9"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2750,7 +2801,7 @@
       </c>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -2774,7 +2825,7 @@
       </c>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
@@ -2801,7 +2852,7 @@
       </c>
       <c r="M11" s="8"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4</v>
       </c>
@@ -2828,7 +2879,7 @@
       </c>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -2858,7 +2909,7 @@
       </c>
       <c r="M13" s="8"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5</v>
       </c>
@@ -2888,7 +2939,7 @@
       </c>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6</v>
       </c>
@@ -2921,7 +2972,7 @@
       </c>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>6</v>
       </c>
@@ -2954,7 +3005,7 @@
       </c>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>7</v>
       </c>
@@ -2990,7 +3041,7 @@
       </c>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>7</v>
       </c>
@@ -3026,7 +3077,7 @@
       </c>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>8</v>
       </c>
@@ -3065,7 +3116,7 @@
       </c>
       <c r="M19" s="8"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>8</v>
       </c>
@@ -3104,7 +3155,7 @@
       </c>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>9</v>
       </c>
@@ -3143,7 +3194,7 @@
       </c>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>9</v>
       </c>
@@ -3182,7 +3233,7 @@
       </c>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>10</v>
       </c>
@@ -3221,7 +3272,7 @@
       </c>
       <c r="M23" s="8"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>10</v>
       </c>
@@ -3260,7 +3311,7 @@
       </c>
       <c r="N24" s="9"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -3271,13 +3322,13 @@
       <c r="K25" s="8"/>
       <c r="M25" s="8"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N26" s="8"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M27" s="8"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>91</v>
       </c>
@@ -3285,7 +3336,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>86</v>
       </c>
@@ -3317,7 +3368,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -3344,7 +3395,7 @@
       </c>
       <c r="M30" s="8"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3371,7 +3422,7 @@
       </c>
       <c r="M31" s="9"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
@@ -3404,7 +3455,7 @@
       </c>
       <c r="M32" s="8"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
@@ -3437,7 +3488,7 @@
       </c>
       <c r="M33" s="9"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -3473,7 +3524,7 @@
       </c>
       <c r="M34" s="8"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -3509,7 +3560,7 @@
       </c>
       <c r="M35" s="9"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
@@ -3548,7 +3599,7 @@
       </c>
       <c r="M36" s="8"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>4</v>
       </c>
@@ -3587,7 +3638,7 @@
       </c>
       <c r="M37" s="9"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5</v>
       </c>
@@ -3626,7 +3677,7 @@
       </c>
       <c r="M38" s="8"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>5</v>
       </c>
@@ -3665,7 +3716,7 @@
       </c>
       <c r="M39" s="9"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>6</v>
       </c>
@@ -3704,7 +3755,7 @@
       </c>
       <c r="M40" s="8"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>6</v>
       </c>
@@ -3743,7 +3794,7 @@
       </c>
       <c r="M41" s="9"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>7</v>
       </c>
@@ -3782,7 +3833,7 @@
       </c>
       <c r="M42" s="8"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>7</v>
       </c>
@@ -3821,7 +3872,7 @@
       </c>
       <c r="M43" s="9"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>8</v>
       </c>
@@ -3860,7 +3911,7 @@
       </c>
       <c r="M44" s="8"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>8</v>
       </c>
@@ -3899,7 +3950,7 @@
       </c>
       <c r="M45" s="9"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>9</v>
       </c>
@@ -3938,7 +3989,7 @@
       </c>
       <c r="M46" s="8"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>9</v>
       </c>
@@ -3977,7 +4028,7 @@
       </c>
       <c r="M47" s="9"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>10</v>
       </c>
@@ -4016,7 +4067,7 @@
       </c>
       <c r="M48" s="8"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>10</v>
       </c>
@@ -4055,7 +4106,7 @@
       </c>
       <c r="M49" s="9"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
@@ -4067,7 +4118,7 @@
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
@@ -4095,18 +4146,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A26:M49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:M49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>86</v>
       </c>
@@ -4141,7 +4192,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -4170,7 +4221,7 @@
         <v>5505</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -4199,7 +4250,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -4234,7 +4285,7 @@
         <v>3164</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>85</v>
       </c>
@@ -4269,7 +4320,7 @@
         <v>4697</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>84</v>
       </c>
@@ -4307,7 +4358,7 @@
         <v>10118</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>85</v>
       </c>
@@ -4345,7 +4396,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -4386,7 +4437,7 @@
         <v>36106</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>85</v>
       </c>
@@ -4427,7 +4478,7 @@
         <v>38029</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>84</v>
       </c>
@@ -4468,7 +4519,7 @@
         <v>45348</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>85</v>
       </c>
@@ -4509,7 +4560,7 @@
         <v>31821</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -4550,7 +4601,7 @@
         <v>31570</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -4591,7 +4642,7 @@
         <v>24857</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -4632,7 +4683,7 @@
         <v>22037</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -4673,7 +4724,7 @@
         <v>19283</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -4714,7 +4765,7 @@
         <v>17212</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -4755,7 +4806,7 @@
         <v>16715</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -4796,7 +4847,7 @@
         <v>11491</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -4837,7 +4888,7 @@
         <v>13543</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -4878,7 +4929,7 @@
         <v>6619</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -4919,7 +4970,7 @@
         <v>10985</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -4960,7 +5011,7 @@
         <v>189170</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>85</v>
       </c>
@@ -5008,4 +5059,92 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0.1075</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>55</v>
+      </c>
+      <c r="B7">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>65</v>
+      </c>
+      <c r="B9">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>70</v>
+      </c>
+      <c r="B10">
+        <v>3.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>